--- a/mednickdb_pyparse/stagemaps/grass_stagemap.xlsx
+++ b/mednickdb_pyparse/stagemaps/grass_stagemap.xlsx
@@ -19,32 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>mapsfrom</t>
   </si>
   <si>
-    <t>meaning</t>
-  </si>
-  <si>
     <t>mapsto</t>
   </si>
   <si>
     <t>wake</t>
   </si>
   <si>
-    <t>REM</t>
-  </si>
-  <si>
-    <t>stage 1</t>
-  </si>
-  <si>
-    <t>stage 2</t>
-  </si>
-  <si>
-    <t>stage 3</t>
-  </si>
-  <si>
     <t>movement</t>
   </si>
   <si>
@@ -52,6 +37,18 @@
   </si>
   <si>
     <t>artifact</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t>stage1</t>
+  </si>
+  <si>
+    <t>stage2</t>
+  </si>
+  <si>
+    <t>sws</t>
   </si>
 </sst>
 </file>
@@ -369,111 +366,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>-1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>-2</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
